--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1946235.442697066</v>
+        <v>1943983.362985859</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>9.099573361141621</v>
+        <v>114.4918089738202</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804553993</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>27.74005013826203</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>256.6811857025923</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>218.8748435506837</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.99473116157532</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>31.78085380126495</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>54.45803047044426</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177663</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292598</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>177.2979137777578</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>81.77200357366304</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>120.7871326503986</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>203.1332405899842</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740365</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>132.2740511637357</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174121</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>111.321323070213</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>238.8356740282675</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740329</v>
       </c>
       <c r="H37" t="n">
-        <v>35.41770597126623</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>129.7194509233161</v>
+        <v>1.799772605714818</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="C2" t="n">
         <v>1329.547110979147</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,37 +4422,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>701.1808689801002</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C4" t="n">
-        <v>532.2446860521933</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>892.8667531532737</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S4" t="n">
-        <v>701.1808689801002</v>
+        <v>729.2011216450105</v>
       </c>
       <c r="T4" t="n">
-        <v>701.1808689801002</v>
+        <v>507.4345062145366</v>
       </c>
       <c r="U4" t="n">
-        <v>701.1808689801002</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="V4" t="n">
-        <v>701.1808689801002</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="W4" t="n">
-        <v>701.1808689801002</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X4" t="n">
-        <v>701.1808689801002</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.1808689801002</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1822.632236038043</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1453.669719097631</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1095.404020490881</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>709.6157678926365</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>298.629863103029</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>287.5978169884295</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4580,37 +4580,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2972.837166339056</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>2599.371408077976</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>2209.232076102165</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.4482993600903</v>
+        <v>246.5270825411068</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>246.5270825411068</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.201121645011</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>474.5166334391241</v>
       </c>
       <c r="W7" t="n">
-        <v>865.8788942318776</v>
+        <v>474.5166334391241</v>
       </c>
       <c r="X7" t="n">
-        <v>637.8893433338602</v>
+        <v>246.5270825411068</v>
       </c>
       <c r="Y7" t="n">
-        <v>417.0967641903301</v>
+        <v>246.5270825411068</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>939.4077790033343</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="9">
@@ -4875,13 +4875,13 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031482</v>
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596504</v>
@@ -4990,22 +4990,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>838.2890224104441</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847.644273983533</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797189</v>
@@ -5209,40 +5209,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>2022.176527098168</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y13" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5300,25 +5300,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>513.853600740073</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277373</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277373</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>216.8470138298269</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>216.8470138298269</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782971</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038358</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5896,13 +5896,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5978,10 +5978,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5993,16 +5993,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,16 +6066,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
         <v>1577.52840832642</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
         <v>484.8112968429803</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6221,28 +6221,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852254</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6367,16 +6367,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921482</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832229</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134626</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356195</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1447.137698270597</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1157.720528233637</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>929.7309773356195</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6938,19 +6938,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>363.7369613277336</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101285</v>
+        <v>363.7369613277336</v>
       </c>
       <c r="F37" t="n">
-        <v>296.7882229101285</v>
+        <v>216.8470138298233</v>
       </c>
       <c r="G37" t="n">
-        <v>129.5921236250085</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,10 +7169,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327634</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C40" t="n">
-        <v>763.7541388327634</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7345,37 +7345,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741511</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806533</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630031</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,19 +7549,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844822922</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>83.05123379925999</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557218739</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>34.97276993489209</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.404764594808</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>106.0841272570753</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>13.30196929556047</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823595</v>
       </c>
       <c r="H37" t="n">
-        <v>104.8770068749577</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012262</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>18.89602209489627</v>
+        <v>146.8157004124975</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862752.5287998144</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>862752.5287998142</v>
+        <v>862752.5287998143</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>862752.5287998144</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>862752.5287998144</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>862752.5287998142</v>
+        <v>862752.5287998143</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049984</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049986</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049985</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830049</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="K2" t="n">
         <v>565002.6197830047</v>
       </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="H2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>565002.6197830046</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830047</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830045</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405265</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405262</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26433,13 +26433,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955546.1914880398</v>
+        <v>-955546.1914880397</v>
       </c>
       <c r="C6" t="n">
-        <v>373198.5542395527</v>
+        <v>373198.5542395526</v>
       </c>
       <c r="D6" t="n">
-        <v>373198.5542395526</v>
+        <v>373198.5542395525</v>
       </c>
       <c r="E6" t="n">
-        <v>122421.04417985</v>
+        <v>122386.3062544144</v>
       </c>
       <c r="F6" t="n">
-        <v>447833.5059872055</v>
+        <v>447798.7680617697</v>
       </c>
       <c r="G6" t="n">
-        <v>447833.5059872056</v>
+        <v>447798.7680617698</v>
       </c>
       <c r="H6" t="n">
-        <v>447833.5059872051</v>
+        <v>447798.7680617699</v>
       </c>
       <c r="I6" t="n">
-        <v>447833.5059872053</v>
+        <v>447798.7680617697</v>
       </c>
       <c r="J6" t="n">
-        <v>230302.3035899278</v>
+        <v>230267.5656644925</v>
       </c>
       <c r="K6" t="n">
-        <v>447833.5059872054</v>
+        <v>447798.7680617699</v>
       </c>
       <c r="L6" t="n">
-        <v>447833.5059872054</v>
+        <v>447798.7680617698</v>
       </c>
       <c r="M6" t="n">
-        <v>362778.4780516936</v>
+        <v>362743.7401262576</v>
       </c>
       <c r="N6" t="n">
-        <v>447833.5059872056</v>
+        <v>447798.7680617697</v>
       </c>
       <c r="O6" t="n">
-        <v>447833.5059872053</v>
+        <v>447798.7680617698</v>
       </c>
       <c r="P6" t="n">
-        <v>447833.5059872054</v>
+        <v>447798.7680617697</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>345.5834682595413</v>
+        <v>240.1912326468627</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.648459146963432e-12</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>61.1921025317853</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>29.53065250302058</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>75.73292083663679</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>26.19303062660053</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>116.8346192169474</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,16 +27831,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>232.0649678661467</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029167</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>150.4543446923771</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28062,22 +28062,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>137.7769457025062</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282316</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31601,10 +31601,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138795</v>
@@ -31841,28 +31841,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>726.7533607666132</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>362.1804684129204</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>362.8934092184361</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,7 +33281,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,13 +33889,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,16 +34214,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,31 +34442,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340053</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>584.6193268445949</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899088</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>224.3390294385614</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295474</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060438</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>224.339029438562</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,7 +36929,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,13 +37710,13 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
